--- a/BEMFSimulation/ExcelResults/LineVoltage1000.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage1000.xlsx
@@ -408,13 +408,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B2">
-        <v>-65.02684172237944</v>
+        <v>-65.63898266027483</v>
       </c>
       <c r="C2">
-        <v>135.0137541127665</v>
+        <v>137.5805483978372</v>
       </c>
       <c r="D2">
-        <v>-69.98691239038708</v>
+        <v>-71.94156573756237</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B3">
-        <v>-58.57336898101951</v>
+        <v>-60.21436190502286</v>
       </c>
       <c r="C3">
-        <v>131.1819328526252</v>
+        <v>135.3563949872351</v>
       </c>
       <c r="D3">
-        <v>-72.6085638716057</v>
+        <v>-75.14203308221224</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0005</v>
       </c>
       <c r="B4">
-        <v>-45.15282829846121</v>
+        <v>-47.90337936044789</v>
       </c>
       <c r="C4">
-        <v>123.2663810057032</v>
+        <v>128.3755242984788</v>
       </c>
       <c r="D4">
-        <v>-78.11355270724201</v>
+        <v>-80.47214493803091</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B5">
-        <v>-27.52568940937247</v>
+        <v>-26.99589745954481</v>
       </c>
       <c r="C5">
-        <v>113.3920731308211</v>
+        <v>113.6714892265337</v>
       </c>
       <c r="D5">
-        <v>-85.86638372144864</v>
+        <v>-86.67559176698887</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0008333333333333333</v>
       </c>
       <c r="B6">
-        <v>-13.26690663051444</v>
+        <v>-12.79427776368317</v>
       </c>
       <c r="C6">
-        <v>106.7497072018866</v>
+        <v>110.0740909594102</v>
       </c>
       <c r="D6">
-        <v>-93.48280057137217</v>
+        <v>-97.27981319572706</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.001</v>
       </c>
       <c r="B7">
-        <v>-5.916070329600398</v>
+        <v>-6.453641515030419</v>
       </c>
       <c r="C7">
-        <v>103.3621967425635</v>
+        <v>106.8932677088991</v>
       </c>
       <c r="D7">
-        <v>-97.44612641296312</v>
+        <v>-100.4396261938687</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.001166666666666667</v>
       </c>
       <c r="B8">
-        <v>-1.612475159265102</v>
+        <v>-2.413832404459519</v>
       </c>
       <c r="C8">
-        <v>103.7962735850544</v>
+        <v>105.3667574589457</v>
       </c>
       <c r="D8">
-        <v>-102.1837984257893</v>
+        <v>-102.9529250544861</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B9">
-        <v>1.532241653168285</v>
+        <v>1.852933546036411</v>
       </c>
       <c r="C9">
-        <v>102.5351248204506</v>
+        <v>103.4336720825306</v>
       </c>
       <c r="D9">
-        <v>-104.0673664736188</v>
+        <v>-105.286605628567</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0015</v>
       </c>
       <c r="B10">
-        <v>5.83729811291089</v>
+        <v>6.551634919367135</v>
       </c>
       <c r="C10">
-        <v>97.71278667342686</v>
+        <v>99.68051003856527</v>
       </c>
       <c r="D10">
-        <v>-103.5500847863377</v>
+        <v>-106.2321449579324</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B11">
-        <v>13.0929713362497</v>
+        <v>13.15297967474511</v>
       </c>
       <c r="C11">
-        <v>93.8229719394804</v>
+        <v>98.51438955715936</v>
       </c>
       <c r="D11">
-        <v>-106.9159432757301</v>
+        <v>-111.6673692319045</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.001833333333333334</v>
       </c>
       <c r="B12">
-        <v>27.40831582959491</v>
+        <v>28.19634121672937</v>
       </c>
       <c r="C12">
-        <v>86.15374454846872</v>
+        <v>87.04632741948927</v>
       </c>
       <c r="D12">
-        <v>-113.5620603780636</v>
+        <v>-115.2426686362186</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.002</v>
       </c>
       <c r="B13">
-        <v>44.86964870852844</v>
+        <v>46.72829901766706</v>
       </c>
       <c r="C13">
-        <v>78.35431659380494</v>
+        <v>79.43443198064382</v>
       </c>
       <c r="D13">
-        <v>-123.2239653023334</v>
+        <v>-126.1627309983109</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.002166666666666667</v>
       </c>
       <c r="B14">
-        <v>58.42967738270571</v>
+        <v>60.92087049436125</v>
       </c>
       <c r="C14">
-        <v>72.60529070804741</v>
+        <v>75.09669188836159</v>
       </c>
       <c r="D14">
-        <v>-131.0349680907531</v>
+        <v>-136.0175623827228</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B15">
-        <v>64.84206473732715</v>
+        <v>65.18423058112282</v>
       </c>
       <c r="C15">
-        <v>69.77492725658361</v>
+        <v>71.52145781124484</v>
       </c>
       <c r="D15">
-        <v>-134.6169919939107</v>
+        <v>-136.7056883923677</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0025</v>
       </c>
       <c r="B16">
-        <v>69.06304999283908</v>
+        <v>69.918877929622</v>
       </c>
       <c r="C16">
-        <v>68.95274321399886</v>
+        <v>70.19630387112439</v>
       </c>
       <c r="D16">
-        <v>-138.0157932068379</v>
+        <v>-140.1151818007464</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.002666666666666667</v>
       </c>
       <c r="B17">
-        <v>69.82326310372017</v>
+        <v>71.51855318562113</v>
       </c>
       <c r="C17">
-        <v>65.04677955723837</v>
+        <v>65.69394788482245</v>
       </c>
       <c r="D17">
-        <v>-134.8700426609585</v>
+        <v>-137.2125010704436</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.002833333333333333</v>
       </c>
       <c r="B18">
-        <v>72.40636965438964</v>
+        <v>75.14380739436409</v>
       </c>
       <c r="C18">
-        <v>58.61041348973156</v>
+        <v>60.46893291978759</v>
       </c>
       <c r="D18">
-        <v>-131.0167831441212</v>
+        <v>-135.6127403141517</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.003</v>
       </c>
       <c r="B19">
-        <v>78.23179740506036</v>
+        <v>80.79630738442918</v>
       </c>
       <c r="C19">
-        <v>45.31391318886544</v>
+        <v>47.94024228221159</v>
       </c>
       <c r="D19">
-        <v>-123.5457105939258</v>
+        <v>-128.7365496666408</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.003166666666666666</v>
       </c>
       <c r="B20">
-        <v>86.11095582791781</v>
+        <v>86.96084781394754</v>
       </c>
       <c r="C20">
-        <v>27.55121671519506</v>
+        <v>27.27948406742356</v>
       </c>
       <c r="D20">
-        <v>-113.6621725431129</v>
+        <v>-114.2403318813711</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.003333333333333333</v>
       </c>
       <c r="B21">
-        <v>93.70942957182054</v>
+        <v>97.6278543480129</v>
       </c>
       <c r="C21">
-        <v>13.22393882917733</v>
+        <v>13.03922190967574</v>
       </c>
       <c r="D21">
-        <v>-106.9333684009979</v>
+        <v>-110.6670762576886</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.003499999999999999</v>
       </c>
       <c r="B22">
-        <v>97.57093861912178</v>
+        <v>100.4536850696466</v>
       </c>
       <c r="C22">
-        <v>5.98536381040654</v>
+        <v>6.581022106491165</v>
       </c>
       <c r="D22">
-        <v>-103.5563024295283</v>
+        <v>-107.0347071761378</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.003666666666666666</v>
       </c>
       <c r="B23">
-        <v>102.2100775849362</v>
+        <v>103.1528463378029</v>
       </c>
       <c r="C23">
-        <v>1.661238403155913</v>
+        <v>2.199022040003527</v>
       </c>
       <c r="D23">
-        <v>-103.8713159880921</v>
+        <v>-105.3518683778064</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.003833333333333332</v>
       </c>
       <c r="B24">
-        <v>103.9993130831411</v>
+        <v>105.7814199488368</v>
       </c>
       <c r="C24">
-        <v>-1.560462006091285</v>
+        <v>-2.122821387636058</v>
       </c>
       <c r="D24">
-        <v>-102.4388510770498</v>
+        <v>-103.6585985612007</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.003999999999999999</v>
       </c>
       <c r="B25">
-        <v>103.6885255185667</v>
+        <v>106.4828340639365</v>
       </c>
       <c r="C25">
-        <v>-5.919633316094075</v>
+        <v>-6.52554969020072</v>
       </c>
       <c r="D25">
-        <v>-97.76889220247259</v>
+        <v>-99.95728437373575</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.004166666666666666</v>
       </c>
       <c r="B26">
-        <v>107.1307314628854</v>
+        <v>111.3791315887268</v>
       </c>
       <c r="C26">
-        <v>-13.11588011311887</v>
+        <v>-12.84148243108477</v>
       </c>
       <c r="D26">
-        <v>-94.01485134976653</v>
+        <v>-98.53764915764202</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.004333333333333332</v>
       </c>
       <c r="B27">
-        <v>113.8131515162624</v>
+        <v>114.7555874315745</v>
       </c>
       <c r="C27">
-        <v>-27.39952243687377</v>
+        <v>-27.75103497902165</v>
       </c>
       <c r="D27">
-        <v>-86.41362907938867</v>
+        <v>-87.00455245255283</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.004499999999999999</v>
       </c>
       <c r="B28">
-        <v>123.6564858811763</v>
+        <v>126.3565363060515</v>
       </c>
       <c r="C28">
-        <v>-45.01224260471638</v>
+        <v>-46.80953879615243</v>
       </c>
       <c r="D28">
-        <v>-78.64424327645993</v>
+        <v>-79.54699750989903</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.004666666666666665</v>
       </c>
       <c r="B29">
-        <v>131.2759129710687</v>
+        <v>136.5670279299214</v>
       </c>
       <c r="C29">
-        <v>-58.57866265727527</v>
+        <v>-61.17048300146839</v>
       </c>
       <c r="D29">
-        <v>-72.69725031379343</v>
+        <v>-75.396544928453</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.004833333333333332</v>
       </c>
       <c r="B30">
-        <v>134.6161886316625</v>
+        <v>137.175185281828</v>
       </c>
       <c r="C30">
-        <v>-64.91965551703316</v>
+        <v>-65.37747307943765</v>
       </c>
       <c r="D30">
-        <v>-69.69653311462929</v>
+        <v>-71.79771220239039</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.004999999999999998</v>
       </c>
       <c r="B31">
-        <v>137.9075505587289</v>
+        <v>139.8208043903624</v>
       </c>
       <c r="C31">
-        <v>-69.03938880716832</v>
+        <v>-69.89504333634358</v>
       </c>
       <c r="D31">
-        <v>-68.86816175156058</v>
+        <v>-69.92576105401884</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.005166666666666665</v>
       </c>
       <c r="B32">
-        <v>134.7674205931782</v>
+        <v>136.3622105481784</v>
       </c>
       <c r="C32">
-        <v>-69.82543070239613</v>
+        <v>-71.32153732243719</v>
       </c>
       <c r="D32">
-        <v>-64.9419898907821</v>
+        <v>-65.04067322574123</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.005333333333333331</v>
       </c>
       <c r="B33">
-        <v>130.9423249842381</v>
+        <v>135.2281465157164</v>
       </c>
       <c r="C33">
-        <v>-72.4458043276655</v>
+        <v>-75.00220708171051</v>
       </c>
       <c r="D33">
-        <v>-58.4965206565726</v>
+        <v>-60.22593943400593</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.005499999999999998</v>
       </c>
       <c r="B34">
-        <v>123.4440502781394</v>
+        <v>128.837860440781</v>
       </c>
       <c r="C34">
-        <v>-78.19283913704358</v>
+        <v>-80.67796067741655</v>
       </c>
       <c r="D34">
-        <v>-45.25121114109585</v>
+        <v>-48.1598997633645</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.005666666666666664</v>
       </c>
       <c r="B35">
-        <v>113.5891615684528</v>
+        <v>113.9795278726509</v>
       </c>
       <c r="C35">
-        <v>-86.02948748715231</v>
+        <v>-86.643790625731</v>
       </c>
       <c r="D35">
-        <v>-27.5596740813005</v>
+        <v>-27.33573724691991</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.005833333333333331</v>
       </c>
       <c r="B36">
-        <v>106.9061209711501</v>
+        <v>110.1641531401142</v>
       </c>
       <c r="C36">
-        <v>-93.62666134244508</v>
+        <v>-97.32360072567577</v>
       </c>
       <c r="D36">
-        <v>-13.27945962870502</v>
+        <v>-12.84055241443843</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.005999999999999998</v>
       </c>
       <c r="B37">
-        <v>103.5967005896224</v>
+        <v>106.8973019710362</v>
       </c>
       <c r="C37">
-        <v>-97.63519158026151</v>
+        <v>-100.545555132544</v>
       </c>
       <c r="D37">
-        <v>-5.961509009360878</v>
+        <v>-6.351746838492161</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.006166666666666664</v>
       </c>
       <c r="B38">
-        <v>103.9003656727998</v>
+        <v>105.3492168651844</v>
       </c>
       <c r="C38">
-        <v>-102.2791948300946</v>
+        <v>-103.0704887703853</v>
       </c>
       <c r="D38">
-        <v>-1.62117084270524</v>
+        <v>-2.27872809479917</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.006333333333333331</v>
       </c>
       <c r="B39">
-        <v>102.5726142612107</v>
+        <v>103.6768967225271</v>
       </c>
       <c r="C39">
-        <v>-104.175901276312</v>
+        <v>-105.5966369101397</v>
       </c>
       <c r="D39">
-        <v>1.603287015101259</v>
+        <v>1.91974018761254</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.006499999999999997</v>
       </c>
       <c r="B40">
-        <v>97.64230452987432</v>
+        <v>99.88460325667278</v>
       </c>
       <c r="C40">
-        <v>-103.5426801510132</v>
+        <v>-106.3563646682875</v>
       </c>
       <c r="D40">
-        <v>5.900375621138874</v>
+        <v>6.471761411614708</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.006666666666666664</v>
       </c>
       <c r="B41">
-        <v>93.8659559768862</v>
+        <v>98.84662327328935</v>
       </c>
       <c r="C41">
-        <v>-106.9618383639486</v>
+        <v>-111.8556946965583</v>
       </c>
       <c r="D41">
-        <v>13.09588238706244</v>
+        <v>13.0090714232689</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.00683333333333333</v>
       </c>
       <c r="B42">
-        <v>86.27986698134382</v>
+        <v>87.05956043587167</v>
       </c>
       <c r="C42">
-        <v>-113.6560920286643</v>
+        <v>-115.1734059799756</v>
       </c>
       <c r="D42">
-        <v>27.37622504732049</v>
+        <v>28.11384554410392</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.006999999999999997</v>
       </c>
       <c r="B43">
-        <v>78.45515835000316</v>
+        <v>79.57120674161996</v>
       </c>
       <c r="C43">
-        <v>-123.4138883534746</v>
+        <v>-126.5508640116576</v>
       </c>
       <c r="D43">
-        <v>44.95873000347142</v>
+        <v>46.97965727003762</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.007166666666666663</v>
       </c>
       <c r="B44">
-        <v>72.67313923922165</v>
+        <v>75.35700079813191</v>
       </c>
       <c r="C44">
-        <v>-131.2621690691514</v>
+        <v>-136.4933906072059</v>
       </c>
       <c r="D44">
-        <v>58.58902982992978</v>
+        <v>61.13638980907402</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.00733333333333333</v>
       </c>
       <c r="B45">
-        <v>69.85006574218342</v>
+        <v>71.46388551195447</v>
       </c>
       <c r="C45">
-        <v>-134.8876474258029</v>
+        <v>-136.4564743929681</v>
       </c>
       <c r="D45">
-        <v>65.03758168361945</v>
+        <v>64.99258888101357</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.007499999999999996</v>
       </c>
       <c r="B46">
-        <v>69.07066574736518</v>
+        <v>70.40065115778205</v>
       </c>
       <c r="C46">
-        <v>-138.3097023165999</v>
+        <v>-140.6843368398152</v>
       </c>
       <c r="D46">
-        <v>69.23903656923471</v>
+        <v>70.28368568203311</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.007666666666666663</v>
       </c>
       <c r="B47">
-        <v>65.01804621803025</v>
+        <v>65.63178340292312</v>
       </c>
       <c r="C47">
-        <v>-135.0057542673861</v>
+        <v>-137.5761607261225</v>
       </c>
       <c r="D47">
-        <v>69.98770804935587</v>
+        <v>71.94437732319933</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.007833333333333329</v>
       </c>
       <c r="B48">
-        <v>58.56204793663897</v>
+        <v>60.2063975188457</v>
       </c>
       <c r="C48">
-        <v>-131.1773114660277</v>
+        <v>-135.3562858369193</v>
       </c>
       <c r="D48">
-        <v>72.6152635293887</v>
+        <v>75.14988831807359</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.007999999999999997</v>
       </c>
       <c r="B49">
-        <v>45.12682271313112</v>
+        <v>47.87231929726313</v>
       </c>
       <c r="C49">
-        <v>-123.2504082188211</v>
+        <v>-128.3509940238258</v>
       </c>
       <c r="D49">
-        <v>78.12358550569003</v>
+        <v>80.47867472656269</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.008166666666666664</v>
       </c>
       <c r="B50">
-        <v>27.50210251737875</v>
+        <v>26.97109293587089</v>
       </c>
       <c r="C50">
-        <v>-113.3797625829015</v>
+        <v>-113.6604848662596</v>
       </c>
       <c r="D50">
-        <v>85.87766006552278</v>
+        <v>86.68939193038874</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.008333333333333331</v>
       </c>
       <c r="B51">
-        <v>13.2511715330193</v>
+        <v>12.77896119533744</v>
       </c>
       <c r="C51">
-        <v>-106.7431631935166</v>
+        <v>-110.0710410211036</v>
       </c>
       <c r="D51">
-        <v>93.49199166049729</v>
+        <v>97.29207982576614</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.008499999999999999</v>
       </c>
       <c r="B52">
-        <v>5.908769882698895</v>
+        <v>6.448445550751305</v>
       </c>
       <c r="C52">
-        <v>-103.3595609013701</v>
+        <v>-106.8873897027201</v>
       </c>
       <c r="D52">
-        <v>97.45079101867118</v>
+        <v>100.4389441519688</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.008666666666666666</v>
       </c>
       <c r="B53">
-        <v>1.607482955279075</v>
+        <v>2.408143307982698</v>
       </c>
       <c r="C53">
-        <v>-103.7982503392913</v>
+        <v>-105.3683489412123</v>
       </c>
       <c r="D53">
-        <v>102.1907673840122</v>
+        <v>102.9602056332296</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.008833333333333334</v>
       </c>
       <c r="B54">
-        <v>-1.537139285118954</v>
+        <v>-1.85944324595593</v>
       </c>
       <c r="C54">
-        <v>-102.5291118687682</v>
+        <v>-103.4270519776528</v>
       </c>
       <c r="D54">
-        <v>104.0662511538871</v>
+        <v>105.2864952236087</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.009000000000000001</v>
       </c>
       <c r="B55">
-        <v>-5.844702699381866</v>
+        <v>-6.559737227683495</v>
       </c>
       <c r="C55">
-        <v>-97.70769234751356</v>
+        <v>-99.67617403518435</v>
       </c>
       <c r="D55">
-        <v>103.5523950468954</v>
+        <v>106.2359112628678</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.009166666666666668</v>
       </c>
       <c r="B56">
-        <v>-13.10842931422335</v>
+        <v>-13.16731575078292</v>
       </c>
       <c r="C56">
-        <v>-93.81351092481179</v>
+        <v>-98.50781895551481</v>
       </c>
       <c r="D56">
-        <v>106.9219402390351</v>
+        <v>111.6751347062977</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.009333333333333336</v>
       </c>
       <c r="B57">
-        <v>-27.43197367728104</v>
+        <v>-28.22071223252828</v>
       </c>
       <c r="C57">
-        <v>-86.1427274898642</v>
+        <v>-87.02896288930545</v>
       </c>
       <c r="D57">
-        <v>113.5747011671452</v>
+        <v>115.2496751218337</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.009500000000000003</v>
       </c>
       <c r="B58">
-        <v>-44.89536436194847</v>
+        <v>-46.7558605649697</v>
       </c>
       <c r="C58">
-        <v>-78.34360523577676</v>
+        <v>-79.42737469638521</v>
       </c>
       <c r="D58">
-        <v>123.2389695977252</v>
+        <v>126.1832352613549</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.009666666666666671</v>
       </c>
       <c r="B59">
-        <v>-58.44192698073739</v>
+        <v>-60.93159372965481</v>
       </c>
       <c r="C59">
-        <v>-72.59936553539353</v>
+        <v>-75.09075796729874</v>
       </c>
       <c r="D59">
-        <v>131.0412925161309</v>
+        <v>136.0223516969535</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.009833333333333338</v>
       </c>
       <c r="B60">
-        <v>-64.84996627357937</v>
+        <v>-65.19096305708045</v>
       </c>
       <c r="C60">
-        <v>-69.77269746220847</v>
+        <v>-71.51819599226076</v>
       </c>
       <c r="D60">
-        <v>134.6226637357879</v>
+        <v>136.7091590493412</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.01000000000000001</v>
       </c>
       <c r="B61">
-        <v>-69.06596509499883</v>
+        <v>-69.9232526236527</v>
       </c>
       <c r="C61">
-        <v>-68.95046436704914</v>
+        <v>-70.19251597347169</v>
       </c>
       <c r="D61">
-        <v>138.016429462048</v>
+        <v>140.1157685971244</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.01016666666666667</v>
       </c>
       <c r="B62">
-        <v>-69.82476976575529</v>
+        <v>-71.52105267025811</v>
       </c>
       <c r="C62">
-        <v>-65.03874954696366</v>
+        <v>-65.68678770583877</v>
       </c>
       <c r="D62">
-        <v>134.8635193127189</v>
+        <v>137.2078403760969</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.01033333333333334</v>
       </c>
       <c r="B63">
-        <v>-72.41251476305368</v>
+        <v>-75.15278714276174</v>
       </c>
       <c r="C63">
-        <v>-58.59859659432396</v>
+        <v>-60.46131601961082</v>
       </c>
       <c r="D63">
-        <v>131.0111113573776</v>
+        <v>135.6141031623725</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.01050000000000001</v>
       </c>
       <c r="B64">
-        <v>-78.24265211748735</v>
+        <v>-80.80290223619001</v>
       </c>
       <c r="C64">
-        <v>-45.28818897809667</v>
+        <v>-47.90889222267129</v>
       </c>
       <c r="D64">
-        <v>123.530841095584</v>
+        <v>128.7117944588613</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.01066666666666667</v>
       </c>
       <c r="B65">
-        <v>-86.12228486582927</v>
+        <v>-86.97458555177741</v>
       </c>
       <c r="C65">
-        <v>-27.52719890086561</v>
+        <v>-27.25474571165065</v>
       </c>
       <c r="D65">
-        <v>113.6494837666949</v>
+        <v>114.2293312634281</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.01083333333333334</v>
       </c>
       <c r="B66">
-        <v>-93.71807277185528</v>
+        <v>-97.64044094852305</v>
       </c>
       <c r="C66">
-        <v>-13.20835596535619</v>
+        <v>-13.02416424832281</v>
       </c>
       <c r="D66">
-        <v>106.9264287372115</v>
+        <v>110.6646051968459</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.01100000000000001</v>
       </c>
       <c r="B67">
-        <v>-97.57606900656269</v>
+        <v>-100.4531976977028</v>
       </c>
       <c r="C67">
-        <v>-5.978113653914043</v>
+        <v>-6.57522906628683</v>
       </c>
       <c r="D67">
-        <v>103.5541826604767</v>
+        <v>107.0284267639896</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.01116666666666668</v>
       </c>
       <c r="B68">
-        <v>-102.2166023696887</v>
+        <v>-103.1597416953583</v>
       </c>
       <c r="C68">
-        <v>-1.65613503161088</v>
+        <v>-2.193131679849294</v>
       </c>
       <c r="D68">
-        <v>103.8727374012996</v>
+        <v>105.3528733752076</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.01133333333333334</v>
       </c>
       <c r="B69">
-        <v>-103.9983368384459</v>
+        <v>-105.781316521207</v>
       </c>
       <c r="C69">
-        <v>1.565450034694607</v>
+        <v>2.129224013617254</v>
       </c>
       <c r="D69">
-        <v>102.4328868037513</v>
+        <v>103.6520925075897</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.01150000000000001</v>
       </c>
       <c r="B70">
-        <v>-103.6908252869618</v>
+        <v>-106.4860669374146</v>
       </c>
       <c r="C70">
-        <v>5.92711964686454</v>
+        <v>6.53306821470078</v>
       </c>
       <c r="D70">
-        <v>97.76370564009723</v>
+        <v>99.95299872271384</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.01166666666666668</v>
       </c>
       <c r="B71">
-        <v>-107.1369356576104</v>
+        <v>-111.386798664817</v>
       </c>
       <c r="C71">
-        <v>13.13119823344788</v>
+        <v>12.85550110651318</v>
       </c>
       <c r="D71">
-        <v>94.00573742416253</v>
+        <v>98.53129755830381</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.01183333333333335</v>
       </c>
       <c r="B72">
-        <v>-113.8259461042757</v>
+        <v>-114.7619541554875</v>
       </c>
       <c r="C72">
-        <v>27.42333410868875</v>
+        <v>27.77553396130534</v>
       </c>
       <c r="D72">
-        <v>86.40261199558692</v>
+        <v>86.9864201941822</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.01200000000000001</v>
       </c>
       <c r="B73">
-        <v>-123.671956936708</v>
+        <v>-126.3783654551719</v>
       </c>
       <c r="C73">
-        <v>45.03811950237652</v>
+        <v>46.83788365321796</v>
       </c>
       <c r="D73">
-        <v>78.63383743433151</v>
+        <v>79.54048180195389</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.01216666666666668</v>
       </c>
       <c r="B74">
-        <v>-131.2804169412394</v>
+        <v>-136.571874199816</v>
       </c>
       <c r="C74">
-        <v>58.5903498205878</v>
+        <v>61.18117103846466</v>
       </c>
       <c r="D74">
-        <v>72.69006712065155</v>
+        <v>75.39070316135135</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.01233333333333335</v>
       </c>
       <c r="B75">
-        <v>-134.6232966222069</v>
+        <v>-137.1777317818757</v>
       </c>
       <c r="C75">
-        <v>64.9281998424984</v>
+        <v>65.38382610397528</v>
       </c>
       <c r="D75">
-        <v>69.69509677970845</v>
+        <v>71.7939056779004</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.01250000000000002</v>
       </c>
       <c r="B76">
-        <v>-137.9077967421978</v>
+        <v>-139.821059858534</v>
       </c>
       <c r="C76">
-        <v>69.04214783128741</v>
+        <v>69.89945890339362</v>
       </c>
       <c r="D76">
-        <v>68.86564891091044</v>
+        <v>69.92160095514038</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.01266666666666668</v>
       </c>
       <c r="B77">
-        <v>-134.7596516363207</v>
+        <v>-136.3571676891856</v>
       </c>
       <c r="C77">
-        <v>69.82622952774784</v>
+        <v>71.32394535465208</v>
       </c>
       <c r="D77">
-        <v>64.93342210857288</v>
+        <v>65.03322233453352</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.01283333333333335</v>
       </c>
       <c r="B78">
-        <v>-130.9379833690225</v>
+        <v>-135.2293555555959</v>
       </c>
       <c r="C78">
-        <v>72.45268073434194</v>
+        <v>75.01040278778869</v>
       </c>
       <c r="D78">
-        <v>58.48530263468052</v>
+        <v>60.21895276780722</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.01300000000000002</v>
       </c>
       <c r="B79">
-        <v>-123.4287373990735</v>
+        <v>-128.8146023094428</v>
       </c>
       <c r="C79">
-        <v>78.20341266320862</v>
+        <v>80.68521733836076</v>
       </c>
       <c r="D79">
-        <v>45.22532473586488</v>
+        <v>48.12938497108204</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.01316666666666669</v>
       </c>
       <c r="B80">
-        <v>-113.5767358903521</v>
+        <v>-113.9674620988888</v>
       </c>
       <c r="C80">
-        <v>86.04075085926081</v>
+        <v>86.65724470449277</v>
       </c>
       <c r="D80">
-        <v>27.53598503109131</v>
+        <v>27.31021739439607</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.01333333333333335</v>
       </c>
       <c r="B81">
-        <v>-106.8987069096269</v>
+        <v>-110.1621798926283</v>
       </c>
       <c r="C81">
-        <v>93.63507922223894</v>
+        <v>97.33696265374024</v>
       </c>
       <c r="D81">
-        <v>13.26362768738792</v>
+        <v>12.82521723888804</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.01350000000000002</v>
       </c>
       <c r="B82">
-        <v>-103.5944968169024</v>
+        <v>-106.8906147176797</v>
       </c>
       <c r="C82">
-        <v>97.64017690946159</v>
+        <v>100.5444539782699</v>
       </c>
       <c r="D82">
-        <v>5.954319907440777</v>
+        <v>6.346160739409832</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.01366666666666669</v>
       </c>
       <c r="B83">
-        <v>-103.9014367073761</v>
+        <v>-105.3508994631263</v>
       </c>
       <c r="C83">
-        <v>102.2853563555954</v>
+        <v>103.0776177833223</v>
       </c>
       <c r="D83">
-        <v>1.616080351780795</v>
+        <v>2.273281679804064</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.01383333333333336</v>
       </c>
       <c r="B84">
-        <v>-102.5666229858192</v>
+        <v>-103.6701470322774</v>
       </c>
       <c r="C84">
-        <v>104.1748805162145</v>
+        <v>105.596242173115</v>
       </c>
       <c r="D84">
-        <v>-1.608257530395285</v>
+        <v>-1.926095140837582</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.01400000000000002</v>
       </c>
       <c r="B85">
-        <v>-97.63757820198857</v>
+        <v>-99.88062124802056</v>
       </c>
       <c r="C85">
-        <v>103.5453220257132</v>
+        <v>106.3602786306638</v>
       </c>
       <c r="D85">
-        <v>-5.907743823724605</v>
+        <v>-6.479657382643246</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.01416666666666669</v>
       </c>
       <c r="B86">
-        <v>-93.85727326083938</v>
+        <v>-98.84012890293806</v>
       </c>
       <c r="C86">
-        <v>106.9687209383789</v>
+        <v>111.8634133138077</v>
       </c>
       <c r="D86">
-        <v>-13.11144767753947</v>
+        <v>-13.02328441086964</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.01433333333333336</v>
       </c>
       <c r="B87">
-        <v>-86.26833945403615</v>
+        <v>-87.04193486757805</v>
       </c>
       <c r="C87">
-        <v>113.6682719485781</v>
+        <v>115.180736920762</v>
       </c>
       <c r="D87">
-        <v>-27.39993249454193</v>
+        <v>-28.13880205318392</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.01450000000000003</v>
       </c>
       <c r="B88">
-        <v>-78.44492363929447</v>
+        <v>-79.56433740167934</v>
       </c>
       <c r="C88">
-        <v>123.4294298794855</v>
+        <v>126.5718592440338</v>
       </c>
       <c r="D88">
-        <v>-44.98450624019099</v>
+        <v>-47.00752184235449</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.01466666666666669</v>
       </c>
       <c r="B89">
-        <v>-72.66650908947697</v>
+        <v>-75.35064397786041</v>
       </c>
       <c r="C89">
-        <v>131.2675511054988</v>
+        <v>136.497044820856</v>
       </c>
       <c r="D89">
-        <v>-58.60104201602184</v>
+        <v>-61.1464008429956</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.01483333333333336</v>
       </c>
       <c r="B90">
-        <v>-69.84837274282106</v>
+        <v>-71.46079998700088</v>
       </c>
       <c r="C90">
-        <v>134.894216753736</v>
+        <v>136.4603555672703</v>
       </c>
       <c r="D90">
-        <v>-65.04584401091496</v>
+        <v>-64.99955558026946</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/LineVoltage1000.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage1000.xlsx
@@ -408,13 +408,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B2">
-        <v>-65.63898266027483</v>
+        <v>-66.59407323910446</v>
       </c>
       <c r="C2">
-        <v>137.5805483978372</v>
+        <v>138.3459508274512</v>
       </c>
       <c r="D2">
-        <v>-71.94156573756237</v>
+        <v>-71.75187758834676</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B3">
-        <v>-60.21436190502286</v>
+        <v>-60.08237726993535</v>
       </c>
       <c r="C3">
-        <v>135.3563949872351</v>
+        <v>134.6122935725209</v>
       </c>
       <c r="D3">
-        <v>-75.14203308221224</v>
+        <v>-74.52991630258553</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0005</v>
       </c>
       <c r="B4">
-        <v>-47.90337936044789</v>
+        <v>-46.34345095544876</v>
       </c>
       <c r="C4">
-        <v>128.3755242984788</v>
+        <v>126.558866847586</v>
       </c>
       <c r="D4">
-        <v>-80.47214493803091</v>
+        <v>-80.21541589213727</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B5">
-        <v>-26.99589745954481</v>
+        <v>-28.17941053519707</v>
       </c>
       <c r="C5">
-        <v>113.6714892265337</v>
+        <v>116.1561267866763</v>
       </c>
       <c r="D5">
-        <v>-86.67559176698887</v>
+        <v>-87.97671625147926</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0008333333333333333</v>
       </c>
       <c r="B6">
-        <v>-12.79427776368317</v>
+        <v>-13.58746690381524</v>
       </c>
       <c r="C6">
-        <v>110.0740909594102</v>
+        <v>109.4900642892075</v>
       </c>
       <c r="D6">
-        <v>-97.27981319572706</v>
+        <v>-95.90259738539227</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.001</v>
       </c>
       <c r="B7">
-        <v>-6.453641515030419</v>
+        <v>-6.075654738982447</v>
       </c>
       <c r="C7">
-        <v>106.8932677088991</v>
+        <v>105.834244465336</v>
       </c>
       <c r="D7">
-        <v>-100.4396261938687</v>
+        <v>-99.75858972635351</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.001166666666666667</v>
       </c>
       <c r="B8">
-        <v>-2.413832404459519</v>
+        <v>-1.682576471689906</v>
       </c>
       <c r="C8">
-        <v>105.3667574589457</v>
+        <v>106.7371538538657</v>
       </c>
       <c r="D8">
-        <v>-102.9529250544861</v>
+        <v>-105.0545773821758</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B9">
-        <v>1.852933546036411</v>
+        <v>1.587848399357831</v>
       </c>
       <c r="C9">
-        <v>103.4336720825306</v>
+        <v>105.1751396524077</v>
       </c>
       <c r="D9">
-        <v>-105.286605628567</v>
+        <v>-106.7629880517655</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0015</v>
       </c>
       <c r="B10">
-        <v>6.551634919367135</v>
+        <v>6.049261717137739</v>
       </c>
       <c r="C10">
-        <v>99.68051003856527</v>
+        <v>100.1417087082526</v>
       </c>
       <c r="D10">
-        <v>-106.2321449579324</v>
+        <v>-106.1909704253903</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B11">
-        <v>13.15297967474511</v>
+        <v>13.45238565869281</v>
       </c>
       <c r="C11">
-        <v>98.51438955715936</v>
+        <v>96.3310394391209</v>
       </c>
       <c r="D11">
-        <v>-111.6673692319045</v>
+        <v>-109.7834250978137</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.001833333333333334</v>
       </c>
       <c r="B12">
-        <v>28.19634121672937</v>
+        <v>28.15262133650548</v>
       </c>
       <c r="C12">
-        <v>87.04632741948927</v>
+        <v>88.27365478265672</v>
       </c>
       <c r="D12">
-        <v>-115.2426686362186</v>
+        <v>-116.4262761191622</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.002</v>
       </c>
       <c r="B13">
-        <v>46.72829901766706</v>
+        <v>45.9902219392469</v>
       </c>
       <c r="C13">
-        <v>79.43443198064382</v>
+        <v>80.34112461323625</v>
       </c>
       <c r="D13">
-        <v>-126.1627309983109</v>
+        <v>-126.3313465524832</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.002166666666666667</v>
       </c>
       <c r="B14">
-        <v>60.92087049436125</v>
+        <v>59.91574029510554</v>
       </c>
       <c r="C14">
-        <v>75.09669188836159</v>
+        <v>74.43963264201598</v>
       </c>
       <c r="D14">
-        <v>-136.0175623827228</v>
+        <v>-134.3553729371215</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B15">
-        <v>65.18423058112282</v>
+        <v>66.47666260236358</v>
       </c>
       <c r="C15">
-        <v>71.52145781124484</v>
+        <v>71.50177377975643</v>
       </c>
       <c r="D15">
-        <v>-136.7056883923677</v>
+        <v>-137.97843638212</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0025</v>
       </c>
       <c r="B16">
-        <v>69.918877929622</v>
+        <v>70.94677919504092</v>
       </c>
       <c r="C16">
-        <v>70.19630387112439</v>
+        <v>70.86550110175229</v>
       </c>
       <c r="D16">
-        <v>-140.1151818007464</v>
+        <v>-141.8122802967932</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.002666666666666667</v>
       </c>
       <c r="B17">
-        <v>71.51855318562113</v>
+        <v>71.53648119688272</v>
       </c>
       <c r="C17">
-        <v>65.69394788482245</v>
+        <v>66.5670603731125</v>
       </c>
       <c r="D17">
-        <v>-137.2125010704436</v>
+        <v>-138.1035415699952</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.002833333333333333</v>
       </c>
       <c r="B18">
-        <v>75.14380739436409</v>
+        <v>74.32252085509586</v>
       </c>
       <c r="C18">
-        <v>60.46893291978759</v>
+        <v>60.12374790032403</v>
       </c>
       <c r="D18">
-        <v>-135.6127403141517</v>
+        <v>-134.4462687554199</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.003</v>
       </c>
       <c r="B19">
-        <v>80.79630738442918</v>
+        <v>80.34228775500418</v>
       </c>
       <c r="C19">
-        <v>47.94024228221159</v>
+        <v>46.52655928252551</v>
       </c>
       <c r="D19">
-        <v>-128.7365496666408</v>
+        <v>-126.8688470375297</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.003166666666666666</v>
       </c>
       <c r="B20">
-        <v>86.96084781394754</v>
+        <v>88.2649689246137</v>
       </c>
       <c r="C20">
-        <v>27.27948406742356</v>
+        <v>28.20451886614089</v>
       </c>
       <c r="D20">
-        <v>-114.2403318813711</v>
+        <v>-116.4694877907546</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.003333333333333333</v>
       </c>
       <c r="B21">
-        <v>97.6278543480129</v>
+        <v>96.11483504754941</v>
       </c>
       <c r="C21">
-        <v>13.03922190967574</v>
+        <v>13.55402691821828</v>
       </c>
       <c r="D21">
-        <v>-110.6670762576886</v>
+        <v>-109.6688619657677</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.003499999999999999</v>
       </c>
       <c r="B22">
-        <v>100.4536850696466</v>
+        <v>99.87583403718862</v>
       </c>
       <c r="C22">
-        <v>6.581022106491165</v>
+        <v>6.143535009299757</v>
       </c>
       <c r="D22">
-        <v>-107.0347071761378</v>
+        <v>-106.0193690464884</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.003666666666666666</v>
       </c>
       <c r="B23">
-        <v>103.1528463378029</v>
+        <v>105.085782501993</v>
       </c>
       <c r="C23">
-        <v>2.199022040003527</v>
+        <v>1.699660292207163</v>
       </c>
       <c r="D23">
-        <v>-105.3518683778064</v>
+        <v>-106.7854427942002</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.003833333333333332</v>
       </c>
       <c r="B24">
-        <v>105.7814199488368</v>
+        <v>106.6930879483029</v>
       </c>
       <c r="C24">
-        <v>-2.122821387636058</v>
+        <v>-1.647005158534469</v>
       </c>
       <c r="D24">
-        <v>-103.6585985612007</v>
+        <v>-105.0460827897684</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.003999999999999999</v>
       </c>
       <c r="B25">
-        <v>106.4828340639365</v>
+        <v>106.3230401145687</v>
       </c>
       <c r="C25">
-        <v>-6.52554969020072</v>
+        <v>-6.142831864398016</v>
       </c>
       <c r="D25">
-        <v>-99.95728437373575</v>
+        <v>-100.1802082501707</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.004166666666666666</v>
       </c>
       <c r="B26">
-        <v>111.3791315887268</v>
+        <v>109.9782404865723</v>
       </c>
       <c r="C26">
-        <v>-12.84148243108477</v>
+        <v>-13.46888848423531</v>
       </c>
       <c r="D26">
-        <v>-98.53764915764202</v>
+        <v>-96.50935200233695</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.004333333333333332</v>
       </c>
       <c r="B27">
-        <v>114.7555874315745</v>
+        <v>116.6911480140806</v>
       </c>
       <c r="C27">
-        <v>-27.75103497902165</v>
+        <v>-28.1364389050523</v>
       </c>
       <c r="D27">
-        <v>-87.00455245255283</v>
+        <v>-88.55470910902829</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.004499999999999999</v>
       </c>
       <c r="B28">
-        <v>126.3565363060515</v>
+        <v>126.7579435140598</v>
       </c>
       <c r="C28">
-        <v>-46.80953879615243</v>
+        <v>-46.14093671021475</v>
       </c>
       <c r="D28">
-        <v>-79.54699750989903</v>
+        <v>-80.61700680384502</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.004666666666666665</v>
       </c>
       <c r="B29">
-        <v>136.5670279299214</v>
+        <v>134.5786593584963</v>
       </c>
       <c r="C29">
-        <v>-61.17048300146839</v>
+        <v>-60.07016495861448</v>
       </c>
       <c r="D29">
-        <v>-75.396544928453</v>
+        <v>-74.50849439988188</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.004833333333333332</v>
       </c>
       <c r="B30">
-        <v>137.175185281828</v>
+        <v>138.0492200661164</v>
       </c>
       <c r="C30">
-        <v>-65.37747307943765</v>
+        <v>-66.571591159314</v>
       </c>
       <c r="D30">
-        <v>-71.79771220239039</v>
+        <v>-71.47762890680241</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.004999999999999998</v>
       </c>
       <c r="B31">
-        <v>139.8208043903624</v>
+        <v>141.7147953282932</v>
       </c>
       <c r="C31">
-        <v>-69.89504333634358</v>
+        <v>-70.91930098894639</v>
       </c>
       <c r="D31">
-        <v>-69.92576105401884</v>
+        <v>-70.79549433934685</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.005166666666666665</v>
       </c>
       <c r="B32">
-        <v>136.3622105481784</v>
+        <v>137.9717498017336</v>
       </c>
       <c r="C32">
-        <v>-71.32153732243719</v>
+        <v>-71.52644906800434</v>
       </c>
       <c r="D32">
-        <v>-65.04067322574123</v>
+        <v>-66.44530073372923</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.005333333333333331</v>
       </c>
       <c r="B33">
-        <v>135.2281465157164</v>
+        <v>134.3132160871909</v>
       </c>
       <c r="C33">
-        <v>-75.00220708171051</v>
+        <v>-74.35024321197534</v>
       </c>
       <c r="D33">
-        <v>-60.22593943400593</v>
+        <v>-59.96297287521561</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.005499999999999998</v>
       </c>
       <c r="B34">
-        <v>128.837860440781</v>
+        <v>126.7303357439267</v>
       </c>
       <c r="C34">
-        <v>-80.67796067741655</v>
+        <v>-80.28705487033204</v>
       </c>
       <c r="D34">
-        <v>-48.1598997633645</v>
+        <v>-46.4432808735947</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.005666666666666664</v>
       </c>
       <c r="B35">
-        <v>113.9795278726509</v>
+        <v>116.3998309089018</v>
       </c>
       <c r="C35">
-        <v>-86.643790625731</v>
+        <v>-88.16003487073607</v>
       </c>
       <c r="D35">
-        <v>-27.33573724691991</v>
+        <v>-28.23979603816571</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.005833333333333331</v>
       </c>
       <c r="B36">
-        <v>110.1641531401142</v>
+        <v>109.6124829269828</v>
       </c>
       <c r="C36">
-        <v>-97.32360072567577</v>
+        <v>-96.00753988573528</v>
       </c>
       <c r="D36">
-        <v>-12.84055241443843</v>
+        <v>-13.60494304124757</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.005999999999999998</v>
       </c>
       <c r="B37">
-        <v>106.8973019710362</v>
+        <v>106.0360685167888</v>
       </c>
       <c r="C37">
-        <v>-100.545555132544</v>
+        <v>-99.92945459306486</v>
       </c>
       <c r="D37">
-        <v>-6.351746838492161</v>
+        <v>-6.10661392372397</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.006166666666666664</v>
       </c>
       <c r="B38">
-        <v>105.3492168651844</v>
+        <v>106.7829514589808</v>
       </c>
       <c r="C38">
-        <v>-103.0704887703853</v>
+        <v>-105.1251617608399</v>
       </c>
       <c r="D38">
-        <v>-2.27872809479917</v>
+        <v>-1.657789698140817</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.006333333333333331</v>
       </c>
       <c r="B39">
-        <v>103.6768967225271</v>
+        <v>105.1980570714439</v>
       </c>
       <c r="C39">
-        <v>-105.5966369101397</v>
+        <v>-106.8390742085707</v>
       </c>
       <c r="D39">
-        <v>1.91974018761254</v>
+        <v>1.641017137126866</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.006499999999999997</v>
       </c>
       <c r="B40">
-        <v>99.88460325667278</v>
+        <v>100.0248721219949</v>
       </c>
       <c r="C40">
-        <v>-106.3563646682875</v>
+        <v>-106.1130997804072</v>
       </c>
       <c r="D40">
-        <v>6.471761411614708</v>
+        <v>6.088227658412325</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.006666666666666664</v>
       </c>
       <c r="B41">
-        <v>98.84662327328935</v>
+        <v>96.35023991670933</v>
       </c>
       <c r="C41">
-        <v>-111.8556946965583</v>
+        <v>-109.8028345905422</v>
       </c>
       <c r="D41">
-        <v>13.0090714232689</v>
+        <v>13.45259467383286</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.00683333333333333</v>
       </c>
       <c r="B42">
-        <v>87.05956043587167</v>
+        <v>88.40743981925054</v>
       </c>
       <c r="C42">
-        <v>-115.1734059799756</v>
+        <v>-116.5631538714329</v>
       </c>
       <c r="D42">
-        <v>28.11384554410392</v>
+        <v>28.15571405218237</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.006999999999999997</v>
       </c>
       <c r="B43">
-        <v>79.57120674161996</v>
+        <v>80.43953974260172</v>
       </c>
       <c r="C43">
-        <v>-126.5508640116576</v>
+        <v>-126.5267420455705</v>
       </c>
       <c r="D43">
-        <v>46.97965727003762</v>
+        <v>46.08720230296876</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.007166666666666663</v>
       </c>
       <c r="B44">
-        <v>75.35700079813191</v>
+        <v>74.46925577324626</v>
       </c>
       <c r="C44">
-        <v>-136.4933906072059</v>
+        <v>-134.5175569977436</v>
       </c>
       <c r="D44">
-        <v>61.13638980907402</v>
+        <v>60.04830122449728</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.00733333333333333</v>
       </c>
       <c r="B45">
-        <v>71.46388551195447</v>
+        <v>71.5808311295836</v>
       </c>
       <c r="C45">
-        <v>-136.4564743929681</v>
+        <v>-138.2558656837592</v>
       </c>
       <c r="D45">
-        <v>64.99258888101357</v>
+        <v>66.67503455417564</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.007499999999999996</v>
       </c>
       <c r="B46">
-        <v>70.40065115778205</v>
+        <v>71.00242282241203</v>
       </c>
       <c r="C46">
-        <v>-140.6843368398152</v>
+        <v>-142.149991462324</v>
       </c>
       <c r="D46">
-        <v>70.28368568203311</v>
+        <v>71.14756863991191</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.007666666666666663</v>
       </c>
       <c r="B47">
-        <v>65.63178340292312</v>
+        <v>66.58547633815239</v>
       </c>
       <c r="C47">
-        <v>-137.5761607261225</v>
+        <v>-138.3388166274376</v>
       </c>
       <c r="D47">
-        <v>71.94437732319933</v>
+        <v>71.75334028928518</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.007833333333333329</v>
       </c>
       <c r="B48">
-        <v>60.2063975188457</v>
+        <v>60.07051594161691</v>
       </c>
       <c r="C48">
-        <v>-135.3562858369193</v>
+        <v>-134.6066762604409</v>
       </c>
       <c r="D48">
-        <v>75.14988831807359</v>
+        <v>74.53616031882396</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.007999999999999997</v>
       </c>
       <c r="B49">
-        <v>47.87231929726313</v>
+        <v>46.31671347412382</v>
       </c>
       <c r="C49">
-        <v>-128.3509940238258</v>
+        <v>-126.5425747177633</v>
       </c>
       <c r="D49">
-        <v>80.47867472656269</v>
+        <v>80.22586124363946</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.008166666666666664</v>
       </c>
       <c r="B50">
-        <v>26.97109293587089</v>
+        <v>28.15539120542679</v>
       </c>
       <c r="C50">
-        <v>-113.6604848662596</v>
+        <v>-116.143789170246</v>
       </c>
       <c r="D50">
-        <v>86.68939193038874</v>
+        <v>87.98839796481926</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.008333333333333331</v>
       </c>
       <c r="B51">
-        <v>12.77896119533744</v>
+        <v>13.57117634443212</v>
       </c>
       <c r="C51">
-        <v>-110.0710410211036</v>
+        <v>-109.4825335883583</v>
       </c>
       <c r="D51">
-        <v>97.29207982576614</v>
+        <v>95.91135724392618</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.008499999999999999</v>
       </c>
       <c r="B52">
-        <v>6.448445550751305</v>
+        <v>6.068325419332776</v>
       </c>
       <c r="C52">
-        <v>-106.8873897027201</v>
+        <v>-105.8328046063248</v>
       </c>
       <c r="D52">
-        <v>100.4389441519688</v>
+        <v>99.76447918699206</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.008666666666666666</v>
       </c>
       <c r="B53">
-        <v>2.408143307982698</v>
+        <v>1.677530806288019</v>
       </c>
       <c r="C53">
-        <v>-105.3683489412123</v>
+        <v>-106.7392934056153</v>
       </c>
       <c r="D53">
-        <v>102.9602056332296</v>
+        <v>105.0617625993273</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.008833333333333334</v>
       </c>
       <c r="B54">
-        <v>-1.85944324595593</v>
+        <v>-1.593104314987215</v>
       </c>
       <c r="C54">
-        <v>-103.4270519776528</v>
+        <v>-105.1678796435136</v>
       </c>
       <c r="D54">
-        <v>105.2864952236087</v>
+        <v>106.7609839585008</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.009000000000000001</v>
       </c>
       <c r="B55">
-        <v>-6.559737227683495</v>
+        <v>-6.056804639982403</v>
       </c>
       <c r="C55">
-        <v>-99.67617403518435</v>
+        <v>-100.1366700844878</v>
       </c>
       <c r="D55">
-        <v>106.2359112628678</v>
+        <v>106.1934747244702</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.009166666666666668</v>
       </c>
       <c r="B56">
-        <v>-13.16731575078292</v>
+        <v>-13.46829145451353</v>
       </c>
       <c r="C56">
-        <v>-98.50781895551481</v>
+        <v>-96.32153902038688</v>
       </c>
       <c r="D56">
-        <v>111.6751347062977</v>
+        <v>109.7898304749004</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.009333333333333336</v>
       </c>
       <c r="B57">
-        <v>-28.22071223252828</v>
+        <v>-28.17689293624776</v>
       </c>
       <c r="C57">
-        <v>-87.02896288930545</v>
+        <v>-88.26207740079678</v>
       </c>
       <c r="D57">
-        <v>115.2496751218337</v>
+        <v>116.4389703370445</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.009500000000000003</v>
       </c>
       <c r="B58">
-        <v>-46.7558605649697</v>
+        <v>-46.0164212089323</v>
       </c>
       <c r="C58">
-        <v>-79.42737469638521</v>
+        <v>-80.33051387464654</v>
       </c>
       <c r="D58">
-        <v>126.1832352613549</v>
+        <v>126.3469350835788</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.009666666666666671</v>
       </c>
       <c r="B59">
-        <v>-60.93159372965481</v>
+        <v>-59.92809352756687</v>
       </c>
       <c r="C59">
-        <v>-75.09075796729874</v>
+        <v>-74.43307575816468</v>
       </c>
       <c r="D59">
-        <v>136.0223516969535</v>
+        <v>134.3611692857315</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.009833333333333338</v>
       </c>
       <c r="B60">
-        <v>-65.19096305708045</v>
+        <v>-66.48563066008077</v>
       </c>
       <c r="C60">
-        <v>-71.51819599226076</v>
+        <v>-71.500328079646</v>
       </c>
       <c r="D60">
-        <v>136.7091590493412</v>
+        <v>137.9859587397268</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.01000000000000001</v>
       </c>
       <c r="B61">
-        <v>-69.9232526236527</v>
+        <v>-70.94944678192725</v>
       </c>
       <c r="C61">
-        <v>-70.19251597347169</v>
+        <v>-70.86295702608638</v>
       </c>
       <c r="D61">
-        <v>140.1157685971244</v>
+        <v>141.8124038080136</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.01016666666666667</v>
       </c>
       <c r="B62">
-        <v>-71.52105267025811</v>
+        <v>-71.53727841869954</v>
       </c>
       <c r="C62">
-        <v>-65.68678770583877</v>
+        <v>-66.55823927674652</v>
       </c>
       <c r="D62">
-        <v>137.2078403760969</v>
+        <v>138.0955176954461</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.01033333333333334</v>
       </c>
       <c r="B63">
-        <v>-75.15278714276174</v>
+        <v>-74.32937981419565</v>
       </c>
       <c r="C63">
-        <v>-60.46131601961082</v>
+        <v>-60.11206027955511</v>
       </c>
       <c r="D63">
-        <v>135.6141031623725</v>
+        <v>134.4414400937508</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.01050000000000001</v>
       </c>
       <c r="B64">
-        <v>-80.80290223619001</v>
+        <v>-80.353194379014</v>
       </c>
       <c r="C64">
-        <v>-47.90889222267129</v>
+        <v>-46.49981142416687</v>
       </c>
       <c r="D64">
-        <v>128.7117944588613</v>
+        <v>126.8530058031809</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.01066666666666667</v>
       </c>
       <c r="B65">
-        <v>-86.97458555177741</v>
+        <v>-88.27645002779698</v>
       </c>
       <c r="C65">
-        <v>-27.25474571165065</v>
+        <v>-28.18014935493635</v>
       </c>
       <c r="D65">
-        <v>114.2293312634281</v>
+        <v>116.4565993827333</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.01083333333333334</v>
       </c>
       <c r="B66">
-        <v>-97.64044094852305</v>
+        <v>-96.12457861341233</v>
       </c>
       <c r="C66">
-        <v>-13.02416424832281</v>
+        <v>-13.53807871313284</v>
       </c>
       <c r="D66">
-        <v>110.6646051968459</v>
+        <v>109.6626573265452</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.01100000000000001</v>
       </c>
       <c r="B67">
-        <v>-100.4531976977028</v>
+        <v>-99.88001594836561</v>
       </c>
       <c r="C67">
-        <v>-6.57522906628683</v>
+        <v>-6.136038782256353</v>
       </c>
       <c r="D67">
-        <v>107.0284267639896</v>
+        <v>106.016054730622</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.01116666666666668</v>
       </c>
       <c r="B68">
-        <v>-103.1597416953583</v>
+        <v>-105.0931205896396</v>
       </c>
       <c r="C68">
-        <v>-2.193131679849294</v>
+        <v>-1.694582018248319</v>
       </c>
       <c r="D68">
-        <v>105.3528733752076</v>
+        <v>106.7877026078879</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.01133333333333334</v>
       </c>
       <c r="B69">
-        <v>-105.781316521207</v>
+        <v>-106.6912122707202</v>
       </c>
       <c r="C69">
-        <v>2.129224013617254</v>
+        <v>1.6524246837836</v>
       </c>
       <c r="D69">
-        <v>103.6520925075897</v>
+        <v>105.0387875869366</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.01150000000000001</v>
       </c>
       <c r="B70">
-        <v>-106.4860669374146</v>
+        <v>-106.32611217448</v>
       </c>
       <c r="C70">
-        <v>6.53306821470078</v>
+        <v>6.150315680547443</v>
       </c>
       <c r="D70">
-        <v>99.95299872271384</v>
+        <v>100.1757964939326</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.01166666666666668</v>
       </c>
       <c r="B71">
-        <v>-111.386798664817</v>
+        <v>-109.9851691282921</v>
       </c>
       <c r="C71">
-        <v>12.85550110651318</v>
+        <v>13.48473419044205</v>
       </c>
       <c r="D71">
-        <v>98.53129755830381</v>
+        <v>96.50043493785006</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.01183333333333335</v>
       </c>
       <c r="B72">
-        <v>-114.7619541554875</v>
+        <v>-116.703614335129</v>
       </c>
       <c r="C72">
-        <v>27.77553396130534</v>
+        <v>28.16071938303397</v>
       </c>
       <c r="D72">
-        <v>86.9864201941822</v>
+        <v>88.54289495209504</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.01200000000000001</v>
       </c>
       <c r="B73">
-        <v>-126.3783654551719</v>
+        <v>-126.7736859284552</v>
       </c>
       <c r="C73">
-        <v>46.83788365321796</v>
+        <v>46.16746793899174</v>
       </c>
       <c r="D73">
-        <v>79.54048180195389</v>
+        <v>80.60621798946346</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.01216666666666668</v>
       </c>
       <c r="B74">
-        <v>-136.571874199816</v>
+        <v>-134.5841866078949</v>
       </c>
       <c r="C74">
-        <v>61.18117103846466</v>
+        <v>60.08240453238112</v>
       </c>
       <c r="D74">
-        <v>75.39070316135135</v>
+        <v>74.50178207551382</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.01233333333333335</v>
       </c>
       <c r="B75">
-        <v>-137.1777317818757</v>
+        <v>-138.0558225093424</v>
       </c>
       <c r="C75">
-        <v>65.38382610397528</v>
+        <v>66.58006462258517</v>
       </c>
       <c r="D75">
-        <v>71.7939056779004</v>
+        <v>71.47575788675718</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.01250000000000002</v>
       </c>
       <c r="B76">
-        <v>-139.821059858534</v>
+        <v>-141.7152769297845</v>
       </c>
       <c r="C76">
-        <v>69.89945890339362</v>
+        <v>70.92223111679245</v>
       </c>
       <c r="D76">
-        <v>69.92160095514038</v>
+        <v>70.79304581299205</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.01266666666666668</v>
       </c>
       <c r="B77">
-        <v>-136.3571676891856</v>
+        <v>-137.9645552942399</v>
       </c>
       <c r="C77">
-        <v>71.32394535465208</v>
+        <v>71.52790956415114</v>
       </c>
       <c r="D77">
-        <v>65.03322233453352</v>
+        <v>66.43664573008877</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.01283333333333335</v>
       </c>
       <c r="B78">
-        <v>-135.2293555555959</v>
+        <v>-134.3080294612602</v>
       </c>
       <c r="C78">
-        <v>75.01040278778869</v>
+        <v>74.35677960321013</v>
       </c>
       <c r="D78">
-        <v>60.21895276780722</v>
+        <v>59.95124985805005</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.01300000000000002</v>
       </c>
       <c r="B79">
-        <v>-128.8146023094428</v>
+        <v>-126.7141090920853</v>
       </c>
       <c r="C79">
-        <v>80.68521733836076</v>
+        <v>80.29751919418331</v>
       </c>
       <c r="D79">
-        <v>48.12938497108204</v>
+        <v>46.41658989790201</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.01316666666666669</v>
       </c>
       <c r="B80">
-        <v>-113.9674620988888</v>
+        <v>-116.3864460316744</v>
       </c>
       <c r="C80">
-        <v>86.65724470449277</v>
+        <v>88.17094887917767</v>
       </c>
       <c r="D80">
-        <v>27.31021739439607</v>
+        <v>28.21549715249672</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.01333333333333335</v>
       </c>
       <c r="B81">
-        <v>-110.1621798926283</v>
+        <v>-109.6060929866335</v>
       </c>
       <c r="C81">
-        <v>97.33696265374024</v>
+        <v>96.01731854078025</v>
       </c>
       <c r="D81">
-        <v>12.82521723888804</v>
+        <v>13.58877444585322</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.01350000000000002</v>
       </c>
       <c r="B82">
-        <v>-106.8906147176797</v>
+        <v>-106.0336948112725</v>
       </c>
       <c r="C82">
-        <v>100.5444539782699</v>
+        <v>99.93460869495271</v>
       </c>
       <c r="D82">
-        <v>6.346160739409832</v>
+        <v>6.099086116319739</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.01366666666666669</v>
       </c>
       <c r="B83">
-        <v>-105.3508994631263</v>
+        <v>-106.7855055708609</v>
       </c>
       <c r="C83">
-        <v>103.0776177833223</v>
+        <v>105.1327949344175</v>
       </c>
       <c r="D83">
-        <v>2.273281679804064</v>
+        <v>1.652710636443487</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.01383333333333336</v>
       </c>
       <c r="B84">
-        <v>-103.6701470322774</v>
+        <v>-105.190057105501</v>
       </c>
       <c r="C84">
-        <v>105.596242173115</v>
+        <v>106.8363541092442</v>
       </c>
       <c r="D84">
-        <v>-1.926095140837582</v>
+        <v>-1.646297003743278</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.01400000000000002</v>
       </c>
       <c r="B85">
-        <v>-99.88062124802056</v>
+        <v>-100.0196771895882</v>
       </c>
       <c r="C85">
-        <v>106.3602786306638</v>
+        <v>106.1152696399234</v>
       </c>
       <c r="D85">
-        <v>-6.479657382643246</v>
+        <v>-6.095592450335172</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.01416666666666669</v>
       </c>
       <c r="B86">
-        <v>-98.84012890293806</v>
+        <v>-96.34169368307406</v>
       </c>
       <c r="C86">
-        <v>111.8634133138077</v>
+        <v>109.8101723119128</v>
       </c>
       <c r="D86">
-        <v>-13.02328441086964</v>
+        <v>-13.46847862883874</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.01433333333333336</v>
       </c>
       <c r="B87">
-        <v>-87.04193486757805</v>
+        <v>-88.39572563754409</v>
       </c>
       <c r="C87">
-        <v>115.180736920762</v>
+        <v>116.5759989036005</v>
       </c>
       <c r="D87">
-        <v>-28.13880205318392</v>
+        <v>-28.18027326605646</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.01450000000000003</v>
       </c>
       <c r="B88">
-        <v>-79.56433740167934</v>
+        <v>-80.42902774274999</v>
       </c>
       <c r="C88">
-        <v>126.5718592440338</v>
+        <v>126.5425463095231</v>
       </c>
       <c r="D88">
-        <v>-47.00752184235449</v>
+        <v>-46.11351856677312</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.01466666666666669</v>
       </c>
       <c r="B89">
-        <v>-75.35064397786041</v>
+        <v>-74.46229618330651</v>
       </c>
       <c r="C89">
-        <v>136.497044820856</v>
+        <v>134.5226243525805</v>
       </c>
       <c r="D89">
-        <v>-61.1464008429956</v>
+        <v>-60.06032816927402</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.01483333333333336</v>
       </c>
       <c r="B90">
-        <v>-71.46079998700088</v>
+        <v>-71.57972581569639</v>
       </c>
       <c r="C90">
-        <v>136.4603555672703</v>
+        <v>138.2638295901941</v>
       </c>
       <c r="D90">
-        <v>-64.99955558026946</v>
+        <v>-66.68410377449766</v>
       </c>
     </row>
   </sheetData>
